--- a/Mini_projekt_FINAL.xlsx
+++ b/Mini_projekt_FINAL.xlsx
@@ -5,10 +5,11 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Data analytics projects\ARKUSZ EXCEL - PLAN TRENINGOWY (TRENING SIŁOWY)\mini projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Data analytics projects\ARKUSZ EXCEL - PLAN TRENINGOWY (TRENING SIŁOWY)\mini projekt\Advanced_Excel_Training_Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C8F11-2DEF-4E50-BFB9-3071AA93EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41A290-1C46-43EE-8E44-FC40BB4A1F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="21yrnUYsV9z6RlDl8yuSqdZXiXeQBHaR9n5N5k5iOoUKtgQxQfeDhUXMxQWFFf6wC4dcIdp8mYTSs63ZvtEWfQ==" workbookSaltValue="h6gVviLFlsgiEWKf/SiOqg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97BD010C-89F1-407C-B9C1-79FA50A4F15A}"/>
   </bookViews>
@@ -2464,7 +2465,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2532,7 +2533,8 @@
       <formula1>"Siła,Hipertrofia,Mix"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2540,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B0E3AD-53BF-43AD-8566-8CC47F5734C7}">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2561,7 +2563,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="20">
         <f>((DANE_UŻYTKOWNIKA!B4+DANE_UŻYTKOWNIKA!B5+DANE_UŻYTKOWNIKA!B6)/3)/DANE_UŻYTKOWNIKA!B3</f>
-        <v>1.1666666666666665</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -2572,7 +2574,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="19" t="str">
         <f>IF(C2&lt;1.2,"Początkujący",IF(C2&lt;1.8,"Średnio zaawansowany","Zaawansowany"))</f>
-        <v>Początkujący</v>
+        <v>Średnio zaawansowany</v>
       </c>
       <c r="D3" s="19"/>
     </row>
@@ -2691,7 +2693,7 @@
         <f>IF(COUNTIF(E7:E10,"KRYTYCZNY")&gt;0,"WYSOKI PRIORYTET",
  IF(COUNTIF(E7:E10,"ŚREDNIA")&gt;0,"UMIARKOWANY PRIORYTET",
  IF(C3="Początkujący","Budowanie bazy siłowej","Standardowa progresja")))</f>
-        <v>Budowanie bazy siłowej</v>
+        <v>Standardowa progresja</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -2752,13 +2754,15 @@
     </row>
     <row r="25" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bUL4maaRRrnjc2uYjVdqZY4e1nGxTQuZtiIuCrbavsjscYhryMpP0y/1C2ScyWo/YXfoqBA990pkt6YHhPfOzw==" saltValue="jwziiaMr3vZCOkxs3Lk/pg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2767,7 +2771,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,11 +2799,11 @@
       </c>
       <c r="B3" s="12">
         <f>IF(SILNIK_ANALITYCZNY!C3="Początkujący",0.65,IF(SILNIK_ANALITYCZNY!C3="Średnio zaawansowany",0.7,0.75))</f>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="10">
         <f>MROUND(DANE_UŻYTKOWNIKA!B4*B3,2.5)</f>
-        <v>52.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2808,11 +2812,11 @@
       </c>
       <c r="B4" s="12">
         <f>B3+0.05</f>
-        <v>0.70000000000000007</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="10">
         <f>MROUND(DANE_UŻYTKOWNIKA!B4*B4,2.5)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2821,11 +2825,11 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" ref="B5:B6" si="0">B4+0.05</f>
-        <v>0.75000000000000011</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="10">
         <f>MROUND(DANE_UŻYTKOWNIKA!B4*B5,2.5)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2834,11 +2838,11 @@
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
-        <v>0.80000000000000016</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C6" s="10">
         <f>MROUND(DANE_UŻYTKOWNIKA!B4*B6,2.5)</f>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2890,7 +2894,7 @@
       </c>
       <c r="B15" s="10">
         <f>MROUND(C6*(1+B11/30),2.5)</f>
-        <v>107.5</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2899,12 +2903,13 @@
       </c>
       <c r="B16" s="16">
         <f>(B15-DANE_UŻYTKOWNIKA!B4)/DANE_UŻYTKOWNIKA!B4</f>
-        <v>0.34375</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2913,7 +2918,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2934,7 @@
       </c>
       <c r="B2" s="10" t="str">
         <f>SILNIK_ANALITYCZNY!C3</f>
-        <v>Początkujący</v>
+        <v>Średnio zaawansowany</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2956,7 +2961,7 @@
       </c>
       <c r="B5" s="10" t="str">
         <f>SILNIK_ANALITYCZNY!B13</f>
-        <v>Budowanie bazy siłowej</v>
+        <v>Standardowa progresja</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2985,6 +2990,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",B3)))</formula>
@@ -3011,7 +3017,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/Mini_projekt_FINAL.xlsx
+++ b/Mini_projekt_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Data analytics projects\ARKUSZ EXCEL - PLAN TRENINGOWY (TRENING SIŁOWY)\mini projekt\Advanced_Excel_Training_Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41A290-1C46-43EE-8E44-FC40BB4A1F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16A7D4-77E2-47CE-A762-1C84B2522599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="21yrnUYsV9z6RlDl8yuSqdZXiXeQBHaR9n5N5k5iOoUKtgQxQfeDhUXMxQWFFf6wC4dcIdp8mYTSs63ZvtEWfQ==" workbookSaltValue="h6gVviLFlsgiEWKf/SiOqg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97BD010C-89F1-407C-B9C1-79FA50A4F15A}"/>
@@ -276,9 +276,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -287,6 +284,9 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2444,6 +2444,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
@@ -2487,47 +2490,48 @@
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="NTxorZxm9gVEWKbjA3uoNR3U+aPhRVlz8TPPbCt7R0JdBL5mUo+yNvXJ+5rSqvzX5U6QlFbgFZDkYu0H+NCvmw==" saltValue="8VEOplCItwJg/Couh0fVBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{B24EABEA-2A16-4695-A31B-C9C77E89F8FE}">
       <formula1>"Siła,Hipertrofia,Mix"</formula1>
@@ -2568,7 +2572,7 @@
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
@@ -2689,13 +2693,13 @@
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="18" t="str">
         <f>IF(COUNTIF(E7:E10,"KRYTYCZNY")&gt;0,"WYSOKI PRIORYTET",
  IF(COUNTIF(E7:E10,"ŚREDNIA")&gt;0,"UMIARKOWANY PRIORYTET",
  IF(C3="Początkujący","Budowanie bazy siłowej","Standardowa progresja")))</f>
         <v>Standardowa progresja</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.4">
@@ -2782,7 +2786,7 @@
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="60" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2879,7 +2883,7 @@
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>Nie wymaga</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
@@ -2901,7 +2905,7 @@
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <f>(B15-DANE_UŻYTKOWNIKA!B4)/DANE_UŻYTKOWNIKA!B4</f>
         <v>0.42499999999999999</v>
       </c>
@@ -2950,7 +2954,7 @@
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f>MAX(SILNIK_ANALITYCZNY!D7:D10)</f>
         <v>5.1546391752577317E-2</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
